--- a/medicine/Psychotrope/Long_black/Long_black.xlsx
+++ b/medicine/Psychotrope/Long_black/Long_black.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un long black (littéralement long noir) est un café, trouvé principalement en Nouvelle-Zélande et en Australie, et plus récemment au Royaume-Uni, particulièrement à Londres. 
 Il est préparé en allongeant deux doses d'expresso avec de l'eau chaude (l'eau est habituellement chauffée par la machine à expresso). Un long black est similaire à un Americano si ce n'est que le long black garde la crème de l'expresso et a une saveur plus forte que l'Americano.
